--- a/milestone3/scripts/milestone-3-java.xlsx
+++ b/milestone3/scripts/milestone-3-java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/payalmantri/Desktop/practice/CS598/CS598-ML4SE-ChatGPT-analysis/milestone3/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B4933D-9FFE-294F-BE2B-EA3D6EE3D9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37D5E4E-B974-2C43-8C44-F498F8C908B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3813,18 +3813,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4076,8 +4079,8 @@
   <dimension ref="A1:N768"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
